--- a/DouYingJianLian/抖音建联.xlsx
+++ b/DouYingJianLian/抖音建联.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\卢鹏\Desktop\批量筛选飞瓜KOL导出数据模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\MyApp-Autojs\DouYingJianLian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97087DF-ABC3-4C5B-AE3A-0BB2BEC99409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11162BF-B95D-4E97-ACEB-EEB3894C1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9255" yWindow="1380" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
